--- a/src/main/java/exportExcel/utils/test2.xlsx
+++ b/src/main/java/exportExcel/utils/test2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="8115"/>
+    <workbookView windowWidth="21510" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
@@ -23,29 +23,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>配置项</t>
+  </si>
   <si>
     <t>配置内容</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
+    <t>结果变量</t>
+  </si>
+  <si>
+    <t>TABLENAME</t>
+  </si>
+  <si>
     <t>报表名称</t>
   </si>
   <si>
     <t>机构查询</t>
   </si>
   <si>
+    <t>PAGEINGMODEL</t>
+  </si>
+  <si>
     <t>分页模式</t>
   </si>
   <si>
     <t>不分页</t>
   </si>
   <si>
+    <t>TABLEHEADS</t>
+  </si>
+  <si>
     <t>表头行</t>
   </si>
   <si>
@@ -55,31 +70,55 @@
     <t>指出报表的表头有哪些行</t>
   </si>
   <si>
+    <t>TABLEDATAS</t>
+  </si>
+  <si>
     <t>数据体行</t>
   </si>
   <si>
     <t>指出报表的明细数据哪些行</t>
   </si>
   <si>
+    <t>TABLETAILS</t>
+  </si>
+  <si>
     <t>表尾行</t>
   </si>
   <si>
     <t>指出报表的表尾哪些行</t>
   </si>
   <si>
+    <t>TOTALCOLUMNS</t>
+  </si>
+  <si>
     <t>总列数</t>
   </si>
   <si>
+    <t>PRESQL_1</t>
+  </si>
+  <si>
     <t>执行SQL_1</t>
   </si>
   <si>
     <t>查询报表前可能需要执行一些存储过程或者SQL</t>
   </si>
   <si>
+    <t>PRESQL_2</t>
+  </si>
+  <si>
     <t>执行SQL_2</t>
   </si>
   <si>
+    <t>QUERYSQL_1</t>
+  </si>
+  <si>
     <t>查询SQL</t>
+  </si>
+  <si>
+    <t>select TXNNO,LCNO,RECVBANKSWIFTCODE,RECVBANKNAME,APPNO,APPENNAME,BLGORGNO,LCISSUEDATE,LCAMT,MAXLCAMT,CONTRACTAMT,CONTRACTNO from IMLCISSUEAR</t>
+  </si>
+  <si>
+    <t>DATA</t>
   </si>
   <si>
     <t>主数据，如果有数据体行则会以此数据集为循环，名称必需为DATA</t>
@@ -92,10 +131,22 @@
     <t>[DATE:LCISSUEDATE](yyyy-MM-dd );[DEFUALT:CONTRACTNO]("无");[CONVERT:CONTRACTAMT](0:"贸易",1:"非贸易");[NUMBER:LCAMT](#.000)</t>
   </si>
   <si>
+    <t>QUERYSQL_2</t>
+  </si>
+  <si>
     <t>查询SQL_1</t>
   </si>
   <si>
+    <t xml:space="preserve">select (select count(*) from IMLCISSUEAR ),RECVBANKNAME from IMLCISSUEAR  </t>
+  </si>
+  <si>
+    <t>DATASUM</t>
+  </si>
+  <si>
     <t>一个报表中的结果可以涉及多个查询结果时用“查询SQL_n”来获取，这样的SQL只会取第一行的数据</t>
+  </si>
+  <si>
+    <t>total,RECVBANKNAME</t>
   </si>
   <si>
     <t>查询条件必输项列表</t>
@@ -109,6 +160,9 @@
     <t>用于配置哪些查询条件必需录入，可以有多种组合，一个组合涉及多个字段必输时以“|”符号分割</t>
   </si>
   <si>
+    <t>看看看</t>
+  </si>
+  <si>
     <t>查询条件</t>
   </si>
   <si>
@@ -311,85 +365,19 @@
   </si>
   <si>
     <t>客户英文名称</t>
-  </si>
-  <si>
-    <t>配置项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>select TXNNO,LCNO,RECVBANKSWIFTCODE,RECVBANKNAME,APPNO,APPENNAME,BLGORGNO,LCISSUEDATE,LCAMT,MAXLCAMT,CONTRACTAMT,CONTRACTNO from IMLCISSUEAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果变量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total,RECVBANKNAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATASUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">select (select count(*) from IMLCISSUEAR ),RECVBANKNAME from IMLCISSUEAR  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLENAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGEINGMODEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLEHEADS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLEDATAS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLETAILS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTALCOLUMNS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRESQL_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRESQL_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUERYSQL_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUERYSQL_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -401,46 +389,72 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <sz val="28"/>
+      <color indexed="43"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color indexed="43"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color indexed="13"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,24 +469,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -496,16 +522,38 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,19 +574,34 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,33 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,102 +617,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -975,7 +1038,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1008,16 +1070,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -1026,220 +1089,235 @@
     <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" s="9" customFormat="1" ht="22.5" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="22.5" spans="1:7">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="22.5" spans="1:7">
+      <c r="A3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="22.5" spans="1:7">
+      <c r="A4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="22.5" spans="1:7">
+      <c r="A5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="24">
         <v>3</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="22.5" spans="1:7">
+      <c r="A6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="24">
+        <v>4</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="28">
         <v>12</v>
       </c>
-      <c r="C6" s="20">
-        <v>4</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="101.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
+      <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="11" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" ht="22.5" spans="1:7">
+      <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="B9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" ht="101.1" customHeight="1" spans="1:7">
+      <c r="A10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:7">
+      <c r="A11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" ht="135" spans="1:7">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:D4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>输入限制项!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3 D3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 D3">
+      <formula1>输入限制项!$A$2:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1248,455 +1326,458 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" ht="35.25" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7 D8:D54">
+      <formula1>输入限制项!$E$2:$E$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7 E8:E54">
+      <formula1>输入限制项!$C$2:$C$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>输入限制项!$E$2:$E$15</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D6 D7:D53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>输入限制项!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E6 E7:E53</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
@@ -1712,156 +1793,157 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="48" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="I2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="18.95" customHeight="1" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1871,156 +1953,156 @@
     <col min="8" max="8" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8">
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="5:8">
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="5:8">
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="5:8">
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="5:8">
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="5:8">
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="5:8">
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="5:8">
       <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="5:8">
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="5:8">
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:8">
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="5:8">
       <c r="E16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>